--- a/Documentation/Change Log.xlsx
+++ b/Documentation/Change Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin2\Documents\GitHub\Skripsi_1.0\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{85016BD9-4FA3-4940-865E-296F8F62E2B0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{47C65493-F46D-4E74-ACE1-07087DD5E6FE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{F90A8E79-21F4-4BDB-B023-55F51E15C252}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{F90A8E79-21F4-4BDB-B023-55F51E15C252}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,13 +103,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -124,12 +142,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -448,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{479BC58B-8EBC-4F7D-B230-5BF0D5EFF9FD}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,26 +511,26 @@
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="6"/>
       <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
@@ -538,11 +568,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -550,7 +584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECD50E2-9696-4428-964E-BA10C4E0CE03}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/Documentation/Change Log.xlsx
+++ b/Documentation/Change Log.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin2\Documents\GitHub\Skripsi_1.0\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wendy\Documents\GitHub\Skripsi_1.0\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{47C65493-F46D-4E74-ACE1-07087DD5E6FE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B9D60222-5A36-4310-A04D-AE26F855C834}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{F90A8E79-21F4-4BDB-B023-55F51E15C252}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{F90A8E79-21F4-4BDB-B023-55F51E15C252}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="DAFTAR KEGIATAN" sheetId="2" r:id="rId2"/>
+    <sheet name="SPORTS MATCHER" sheetId="3" r:id="rId2"/>
+    <sheet name="DAFTAR KEGIATAN" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <t>Artificial Intelligence</t>
   </si>
@@ -89,13 +90,151 @@
   </si>
   <si>
     <t>BELAJAR SCRAPPING</t>
+  </si>
+  <si>
+    <t>financial planning</t>
+  </si>
+  <si>
+    <t>sports-matcher</t>
+  </si>
+  <si>
+    <t>Gmaps, Mobile apps, booking db, login &amp; sign in</t>
+  </si>
+  <si>
+    <t>Fitur</t>
+  </si>
+  <si>
+    <t>Personal Information</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Preference</t>
+  </si>
+  <si>
+    <t>Events</t>
+  </si>
+  <si>
+    <t>List Event</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search </t>
+  </si>
+  <si>
+    <t>by Sport</t>
+  </si>
+  <si>
+    <t>by Place</t>
+  </si>
+  <si>
+    <t>Forum</t>
+  </si>
+  <si>
+    <t>By sport</t>
+  </si>
+  <si>
+    <t>by Time</t>
+  </si>
+  <si>
+    <t>Ampas</t>
+  </si>
+  <si>
+    <t>Sport store</t>
+  </si>
+  <si>
+    <t>Championship</t>
+  </si>
+  <si>
+    <t>Player/Coach</t>
+  </si>
+  <si>
+    <t>(Play /Watch)</t>
+  </si>
+  <si>
+    <t>Play Together</t>
+  </si>
+  <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Friends</t>
+  </si>
+  <si>
+    <t>By Matching</t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Reminder</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>Wander in Map</t>
+  </si>
+  <si>
+    <t>Arena Information</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Chat</t>
+  </si>
+  <si>
+    <t>Friend</t>
+  </si>
+  <si>
+    <t>Arena</t>
+  </si>
+  <si>
+    <t>+ Store</t>
+  </si>
+  <si>
+    <t>9 JUNI</t>
+  </si>
+  <si>
+    <t>REVIEW SCRAPING</t>
+  </si>
+  <si>
+    <t>BELAJAR REST WEB SERVICE (GET)</t>
+  </si>
+  <si>
+    <t>BRAINSTORMING APP</t>
+  </si>
+  <si>
+    <t>TENTUIN BACKLOG 'SPINDER'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +244,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -142,9 +288,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -156,12 +305,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,15 +625,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{479BC58B-8EBC-4F7D-B230-5BF0D5EFF9FD}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="69.140625" customWidth="1"/>
     <col min="5" max="6" width="19.7109375" customWidth="1"/>
     <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
@@ -494,39 +643,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="2"/>
       <c r="I2" s="6" t="s">
         <v>4</v>
       </c>
@@ -565,6 +714,19 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -581,11 +743,200 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB4B1B5-4AF0-4F9E-A93F-B0714784BA6A}">
+  <dimension ref="A1:O26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECD50E2-9696-4428-964E-BA10C4E0CE03}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,6 +972,30 @@
         <v>20</v>
       </c>
     </row>
+    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/Change Log.xlsx
+++ b/Documentation/Change Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wendy\Documents\GitHub\Skripsi_1.0\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B9D60222-5A36-4310-A04D-AE26F855C834}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{19F5775F-5D95-44DC-A8B7-0B0248DA9B7F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{F90A8E79-21F4-4BDB-B023-55F51E15C252}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
   <si>
     <t>Artificial Intelligence</t>
   </si>
@@ -228,6 +228,30 @@
   </si>
   <si>
     <t>TENTUIN BACKLOG 'SPINDER'</t>
+  </si>
+  <si>
+    <t>HOME</t>
+  </si>
+  <si>
+    <t>SEARCH</t>
+  </si>
+  <si>
+    <t>CHAT</t>
+  </si>
+  <si>
+    <t>PROFILE</t>
+  </si>
+  <si>
+    <t>ACTIVITY</t>
+  </si>
+  <si>
+    <t>Kayak DM IG</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Event Highlights</t>
   </si>
 </sst>
 </file>
@@ -256,7 +280,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,6 +299,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -288,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -296,6 +332,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -308,9 +346,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,43 +682,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="6"/>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="2"/>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="6"/>
+      <c r="J2" s="8"/>
       <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
@@ -722,7 +761,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B10" t="s">
@@ -744,36 +783,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB4B1B5-4AF0-4F9E-A93F-B0714784BA6A}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
       <c r="E3" t="s">
         <v>30</v>
       </c>
-      <c r="O3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>26</v>
       </c>
@@ -783,39 +821,42 @@
       <c r="G4" t="s">
         <v>43</v>
       </c>
-      <c r="O4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -823,51 +864,56 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
         <v>34</v>
       </c>
+      <c r="C11" s="11"/>
       <c r="F11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>45</v>
       </c>
-      <c r="F17" t="s">
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -878,52 +924,94 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>47</v>
       </c>
       <c r="F21" t="s">
         <v>55</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>50</v>
       </c>
       <c r="F22" t="s">
         <v>27</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>51</v>
       </c>
       <c r="F23" t="s">
         <v>28</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" t="s">
+        <v>68</v>
+      </c>
+      <c r="I29" t="s">
+        <v>69</v>
+      </c>
+      <c r="M29" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" t="s">
+        <v>47</v>
+      </c>
+      <c r="J30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -972,7 +1060,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>62</v>
